--- a/graficas.xlsx
+++ b/graficas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Desktop\Universidad\Segundo año\Algoritmos y estructura datos\HDT5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12153BF4-C907-4E70-83BE-D53F40CF2894}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA0E7B17-B2D7-40D6-BFED-86BD519A5A6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{5B29E49B-5159-4397-A308-FD65DB955C8A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="20">
   <si>
     <t>Intervalo</t>
   </si>
@@ -47,9 +47,6 @@
   </si>
   <si>
     <t>DE</t>
-  </si>
-  <si>
-    <t>MEMORIA 200</t>
   </si>
   <si>
     <t>Intervalo 1</t>
@@ -90,6 +87,15 @@
   <si>
     <t>intervalo 10</t>
   </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Desviacion Estandar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tareas </t>
+  </si>
 </sst>
 </file>
 
@@ -112,7 +118,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -120,12 +126,29 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -270,7 +293,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$A$3:$A$7</c:f>
+              <c:f>Hoja1!$A$5:$A$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -294,24 +317,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$B$3:$B$7</c:f>
+              <c:f>Hoja1!$B$5:$B$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0106496518976904</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>3.90396992665318</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>4.0237947232006102</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3</c:v>
+                  <c:v>3.9259646104066199</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3</c:v>
+                  <c:v>3.74313107750078</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -504,318 +527,6 @@
 </file>
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$96:$A$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$96:$B$100</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-410F-4DE1-A20E-68FC5089CF54}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="2006192960"/>
-        <c:axId val="2006193376"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="2006192960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2006193376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="2006193376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="2006192960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1127,7 +838,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -1439,6 +1150,1632 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT"/>
+              <a:t>Prom tiempo vs procesos</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$T$6:$T$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$U$6:$U$10</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>34.620142207901601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>53.660940995764904</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>95.959944044889099</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138.90588141658401</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>184.67188101137299</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8555-491F-AAFE-B3B1CA892DE6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="28619647"/>
+        <c:axId val="28618399"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="28619647"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28618399"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="28618399"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="28619647"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-GT" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Procesos vs tiempo promedio</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-GT">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$23:$A$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$23:$B$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0106496518976904</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.90396992665318</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0237947232006102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9259646104066199</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.74313107750078</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE9D-4885-A4B4-4E1F4C3FD499}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="127266767"/>
+        <c:axId val="127268015"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="127266767"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127268015"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="127268015"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="127266767"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$I$23:$I$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$J$23:$J$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4.0429846453986498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5707744507393002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.0583814492002599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.00642139822794</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.2279040913107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9EAB-4405-856D-9FFD089F363B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="131488239"/>
+        <c:axId val="131489071"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="131488239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131489071"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="131489071"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="131488239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$Q$23:$Q$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$R$23:$R$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>33.740142207901698</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.575326643381104</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>98.099027643957101</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>140.807926573674</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>186.28020679458601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7FC5-40E4-9672-166943BC72F6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1712943855"/>
+        <c:axId val="1712943023"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1712943855"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712943023"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1712943023"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712943855"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Hoja1!$B$34</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tiempo Promedio</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$35:$A$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$35:$B$39</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.680170345858601</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.203616248022801</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31.001338213882399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.078729170490597</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50.901041864723098</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C21-42BA-9700-57605B9E894C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1712004831"/>
+        <c:axId val="1712005663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1712004831"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712005663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1712005663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1712004831"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
@@ -1512,16 +2849,13 @@
               <a:buFontTx/>
               <a:buNone/>
               <a:tabLst/>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr>
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000">
                     <a:lumMod val="65000"/>
                     <a:lumOff val="35000"/>
                   </a:sysClr>
                 </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
             <a:endParaRPr lang="es-GT"/>
@@ -1624,7 +2958,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Hoja1!$K$4:$K$8</c:f>
+              <c:f>Hoja1!$K$6:$K$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -1648,24 +2982,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Hoja1!$L$4:$L$8</c:f>
+              <c:f>Hoja1!$L$6:$L$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>4.0429846453986498</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>5</c:v>
+                  <c:v>5.5707744507393002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5</c:v>
+                  <c:v>5.0583814492002599</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>5.00642139822794</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>5</c:v>
+                  <c:v>5.2279040913107</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1935,28 +3269,27 @@
             </c:spPr>
           </c:marker>
           <c:xVal>
-            <c:numRef>
+            <c:strRef>
               <c:f>Hoja1!$A$34:$A$38</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
+              <c:strCache>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
+                  <c:v>Procesos</c:v>
+                </c:pt>
+                <c:pt idx="1">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>50</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>100</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>150</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
+              </c:strCache>
+            </c:strRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
@@ -1965,19 +3298,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>33</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>57</c:v>
+                  <c:v>15.680170345858601</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>98</c:v>
+                  <c:v>21.203616248022801</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>140</c:v>
+                  <c:v>31.001338213882399</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>186</c:v>
+                  <c:v>41.078729170490597</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2170,318 +3503,6 @@
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="es-GT"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Hoja1!$A$21:$A$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>200</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Hoja1!$B$21:$B$25</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D57D-4729-B052-954A9728350C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1901919360"/>
-        <c:axId val="1901916864"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1901919360"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1901916864"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1901916864"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="es-GT"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1901919360"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="es-GT"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -2803,7 +3824,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3115,7 +4136,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3437,7 +4458,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -3749,7 +4770,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="es-ES"/>
@@ -4071,6 +5092,318 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-GT"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Hoja1!$A$96:$A$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Hoja1!$B$96:$B$100</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-410F-4DE1-A20E-68FC5089CF54}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="2006192960"/>
+        <c:axId val="2006193376"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="2006192960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006193376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="2006193376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-GT"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2006192960"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-GT"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -4192,6 +5525,166 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6615,6 +8108,2070 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style14.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10748,15 +14305,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
+      <xdr:colOff>144780</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>106680</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>617220</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10820,15 +14377,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>39756</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>21701</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>137160</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:colOff>176916</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>21700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10848,42 +14405,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>179070</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Gráfico 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5370AF40-0086-41BB-A45D-4EAF6B0BB8DB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10919,7 +14440,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10955,7 +14476,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10991,7 +14512,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11027,7 +14548,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11063,7 +14584,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11099,7 +14620,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11135,7 +14656,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11171,7 +14692,187 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>548640</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>365760</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Gráfico 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51D0CF1D-2496-4BCD-BF3E-E3128CF1CD1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>148590</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Gráfico 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A7B247F-0742-482C-A96C-574B609CF152}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>388620</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>167640</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="16" name="Gráfico 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1C69C686-582C-40BA-93D9-767D3518AD8D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>516835</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>702366</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>89452</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="17" name="Gráfico 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2567EC42-3F5C-4EE1-84B7-6868D188DE8B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>384312</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>29818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>185530</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>175592</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="18" name="Gráfico 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{116F6397-B608-4C53-A0BA-920DC9027B6E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -11477,221 +15178,479 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF1B2FF7-3F99-46C8-B405-1F7E881A7DB8}">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:U101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="K96" sqref="K96:L100"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
+    <col min="1" max="1" width="20.33203125" customWidth="1"/>
     <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="11" max="11" width="18.33203125" customWidth="1"/>
     <col min="12" max="12" width="16.88671875" customWidth="1"/>
+    <col min="21" max="21" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1">
+      <c r="B1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>100</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="1">
+        <v>5</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L3" s="1">
+        <v>100</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U3" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>25</v>
+      </c>
+      <c r="B5" s="1">
+        <v>4.0106496518976904</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>50</v>
+      </c>
+      <c r="B6" s="1">
+        <v>3.90396992665318</v>
+      </c>
+      <c r="K6" s="1">
+        <v>25</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4.0429846453986498</v>
+      </c>
+      <c r="T6" s="1">
+        <v>25</v>
+      </c>
+      <c r="U6" s="1">
+        <v>34.620142207901601</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>100</v>
+      </c>
+      <c r="B7" s="1">
+        <v>4.0237947232006102</v>
+      </c>
+      <c r="K7" s="1">
+        <v>50</v>
+      </c>
+      <c r="L7" s="1">
+        <v>5.5707744507393002</v>
+      </c>
+      <c r="T7" s="1">
+        <v>50</v>
+      </c>
+      <c r="U7" s="1">
+        <v>53.660940995764904</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>150</v>
+      </c>
+      <c r="B8" s="1">
+        <v>3.9259646104066199</v>
+      </c>
+      <c r="K8" s="1">
+        <v>100</v>
+      </c>
+      <c r="L8" s="1">
+        <v>5.0583814492002599</v>
+      </c>
+      <c r="T8" s="1">
+        <v>100</v>
+      </c>
+      <c r="U8" s="1">
+        <v>95.959944044889099</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>200</v>
+      </c>
+      <c r="B9" s="1">
+        <v>3.74313107750078</v>
+      </c>
+      <c r="K9" s="1">
+        <v>150</v>
+      </c>
+      <c r="L9" s="1">
+        <v>5.00642139822794</v>
+      </c>
+      <c r="T9" s="1">
+        <v>150</v>
+      </c>
+      <c r="U9" s="1">
+        <v>138.90588141658401</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="K10" s="1">
+        <v>200</v>
+      </c>
+      <c r="L10" s="1">
+        <v>5.2279040913107</v>
+      </c>
+      <c r="T10" s="1">
+        <v>200</v>
+      </c>
+      <c r="U10" s="1">
+        <v>184.67188101137299</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1">
+        <f>STDEV(B5:B9)</f>
+        <v>0.11242172781470082</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="K12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L12" s="1">
+        <f>STDEV(L6:L10)</f>
+        <v>0.56905668540911925</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U12" s="1">
+        <f>STDEV(U6:U10)</f>
+        <v>61.459182785889936</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
+      <c r="B19" s="1">
+        <v>10</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
         <v>5</v>
       </c>
+      <c r="Q19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R19" s="1">
+        <v>5</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A3">
+    <row r="20" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="1">
+        <v>200</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="1">
+        <v>200</v>
+      </c>
+      <c r="Q20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="R20" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B21" s="1">
+        <v>10</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J21" s="1">
+        <v>10</v>
+      </c>
+      <c r="Q21" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="R21" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="R22" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>25</v>
       </c>
-      <c r="B3">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L3" t="s">
-        <v>2</v>
+      <c r="B23" s="1">
+        <v>4.0106496518976904</v>
+      </c>
+      <c r="I23" s="1">
+        <v>25</v>
+      </c>
+      <c r="J23" s="1">
+        <v>4.0429846453986498</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>25</v>
+      </c>
+      <c r="R23" s="1">
+        <v>33.740142207901698</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A4">
+    <row r="24" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>50</v>
       </c>
-      <c r="B4">
+      <c r="B24" s="1">
+        <v>3.90396992665318</v>
+      </c>
+      <c r="I24" s="1">
+        <v>50</v>
+      </c>
+      <c r="J24" s="1">
+        <v>5.5707744507393002</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>50</v>
+      </c>
+      <c r="R24" s="1">
+        <v>57.575326643381104</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>100</v>
+      </c>
+      <c r="B25" s="1">
+        <v>4.0237947232006102</v>
+      </c>
+      <c r="I25" s="1">
+        <v>100</v>
+      </c>
+      <c r="J25" s="1">
+        <v>5.0583814492002599</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>100</v>
+      </c>
+      <c r="R25" s="1">
+        <v>98.099027643957101</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>150</v>
+      </c>
+      <c r="B26" s="1">
+        <v>3.9259646104066199</v>
+      </c>
+      <c r="I26" s="1">
+        <v>150</v>
+      </c>
+      <c r="J26" s="1">
+        <v>5.00642139822794</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>150</v>
+      </c>
+      <c r="R26" s="1">
+        <v>140.807926573674</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>200</v>
+      </c>
+      <c r="B27" s="1">
+        <v>3.74313107750078</v>
+      </c>
+      <c r="I27" s="1">
+        <v>200</v>
+      </c>
+      <c r="J27" s="1">
+        <v>5.2279040913107</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>200</v>
+      </c>
+      <c r="R27">
+        <v>186.28020679458601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+    </row>
+    <row r="29" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="1">
+        <f>STDEV(B23:B27)</f>
+        <v>0.11242172781470082</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="J29" s="1">
+        <f>STDEV(J23:J27)</f>
+        <v>0.56905668540911925</v>
+      </c>
+      <c r="Q29" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="R29" s="1">
+        <f>STDEV(R23:R27)</f>
+        <v>61.743276875340641</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="2">
         <v>3</v>
       </c>
-      <c r="K4">
-        <v>25</v>
-      </c>
-      <c r="L4">
-        <v>4</v>
-      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>100</v>
-      </c>
-      <c r="B5">
-        <v>4</v>
-      </c>
-      <c r="K5">
-        <v>50</v>
-      </c>
-      <c r="L5">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>150</v>
-      </c>
-      <c r="B6">
-        <v>3</v>
-      </c>
-      <c r="K6">
-        <v>100</v>
-      </c>
-      <c r="L6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>200</v>
-      </c>
-      <c r="B7">
-        <v>3</v>
-      </c>
-      <c r="K7">
-        <v>150</v>
-      </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K8">
-        <v>200</v>
-      </c>
-      <c r="L8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B9">
-        <f>STDEV(B3:B7)</f>
-        <v>0.54772255750516674</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K10" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10">
-        <f>STDEV(L4:L8)</f>
-        <v>0.44721359549995787</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>25</v>
-      </c>
-      <c r="B21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>50</v>
-      </c>
-      <c r="B22">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>100</v>
-      </c>
-      <c r="B23">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>150</v>
-      </c>
-      <c r="B24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>200</v>
-      </c>
-      <c r="B25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>3</v>
-      </c>
-      <c r="B27">
-        <f>STDEV(B21:B25)</f>
-        <v>0.54772255750516674</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>4</v>
-      </c>
       <c r="F31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G31">
         <v>200</v>
       </c>
       <c r="I31" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J31">
         <v>200</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>5</v>
+    <row r="32" spans="1:18" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B32" s="1">
+        <v>100</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -11707,31 +15666,31 @@
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>1</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
+      <c r="A33" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>1</v>
       </c>
       <c r="G33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I33" t="s">
         <v>1</v>
       </c>
       <c r="J33" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>25</v>
-      </c>
-      <c r="B34">
-        <v>33</v>
+      <c r="A34" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>2</v>
       </c>
       <c r="F34">
         <v>25</v>
@@ -11747,11 +15706,11 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>50</v>
-      </c>
-      <c r="B35">
-        <v>57</v>
+      <c r="A35" s="1">
+        <v>25</v>
+      </c>
+      <c r="B35" s="1">
+        <v>15.680170345858601</v>
       </c>
       <c r="F35">
         <v>50</v>
@@ -11767,11 +15726,11 @@
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>100</v>
-      </c>
-      <c r="B36">
-        <v>98</v>
+      <c r="A36" s="1">
+        <v>50</v>
+      </c>
+      <c r="B36" s="1">
+        <v>21.203616248022801</v>
       </c>
       <c r="F36">
         <v>100</v>
@@ -11787,11 +15746,11 @@
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>150</v>
-      </c>
-      <c r="B37">
-        <v>140</v>
+      <c r="A37" s="1">
+        <v>100</v>
+      </c>
+      <c r="B37" s="1">
+        <v>31.001338213882399</v>
       </c>
       <c r="F37">
         <v>150</v>
@@ -11807,11 +15766,11 @@
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>200</v>
-      </c>
-      <c r="B38">
-        <v>186</v>
+      <c r="A38" s="1">
+        <v>150</v>
+      </c>
+      <c r="B38" s="1">
+        <v>41.078729170490597</v>
       </c>
       <c r="F38">
         <v>200</v>
@@ -11827,12 +15786,11 @@
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B39">
-        <f>STDEV(B34:B38)</f>
-        <v>61.844158980456683</v>
+      <c r="A39" s="1">
+        <v>200</v>
+      </c>
+      <c r="B39" s="1">
+        <v>50.901041864723098</v>
       </c>
       <c r="F39" t="s">
         <v>3</v>
@@ -11849,35 +15807,48 @@
         <v>0.54772255750516674</v>
       </c>
     </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="1"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B41" s="1">
+        <f>STDEV(B35:B39)</f>
+        <v>14.348912186292079</v>
+      </c>
+    </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>8</v>
       </c>
-      <c r="F62" t="s">
-        <v>9</v>
-      </c>
       <c r="G62" t="s">
+        <v>7</v>
+      </c>
+      <c r="J62" t="s">
         <v>8</v>
       </c>
-      <c r="J62" t="s">
-        <v>9</v>
-      </c>
       <c r="K62" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
+        <v>9</v>
+      </c>
+      <c r="J63" t="s">
         <v>10</v>
-      </c>
-      <c r="J63" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
@@ -11885,19 +15856,19 @@
         <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
         <v>1</v>
       </c>
       <c r="G64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="J64" t="s">
         <v>1</v>
       </c>
       <c r="K64" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
@@ -12025,35 +15996,35 @@
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="K92" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G93" t="s">
+        <v>15</v>
+      </c>
+      <c r="K93" t="s">
         <v>16</v>
-      </c>
-      <c r="K93" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="K94" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.3">
@@ -12061,19 +16032,19 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="G95" t="s">
         <v>1</v>
       </c>
       <c r="H95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K95" t="s">
         <v>1</v>
       </c>
       <c r="L95" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.3">
